--- a/1_pca/estudo_composicoes/_out/output/fatores_e_ranking_final.xlsx
+++ b/1_pca/estudo_composicoes/_out/output/fatores_e_ranking_final.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,13 +9,60 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>P_SEM_INST</t>
+  </si>
+  <si>
+    <t>P_ENSSUP</t>
+  </si>
+  <si>
+    <t>P_ATE5</t>
+  </si>
+  <si>
+    <t>P_MAISDE2</t>
+  </si>
+  <si>
+    <t>M_DENSMORA</t>
+  </si>
+  <si>
+    <t>P_POBREZA</t>
+  </si>
+  <si>
+    <t>M_RENDDOM</t>
+  </si>
+  <si>
+    <t>P_IDOSO10SM</t>
+  </si>
+  <si>
+    <t>P_ALVSREV</t>
+  </si>
+  <si>
+    <t>P_TUDOADEQ</t>
+  </si>
+  <si>
+    <t>Fator1</t>
+  </si>
+  <si>
+    <t>Fator2</t>
+  </si>
+  <si>
+    <t>pontuacao</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +110,18 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +159,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +193,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +228,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,97 +404,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>P_SEM_INST</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>P_ENSSUP</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>P_ATE5</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>P_MAISDE2</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>M_DENSMORA</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>P_POBREZA</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>M_RENDDOM</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>P_IDOSO10SM</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>P_ALVSREV</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>P_TUDOADEQ</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Fator1</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Fator2</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>pontuacao</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>54.35485110574518</v>
+        <v>54.354851105745183</v>
       </c>
       <c r="C2">
         <v>3.61285186081659</v>
       </c>
       <c r="D2">
-        <v>5.980467284098268</v>
+        <v>5.9804672840982684</v>
       </c>
       <c r="E2">
         <v>1.197692775167525</v>
@@ -449,13 +487,13 @@
         <v>0.6371434180327924</v>
       </c>
       <c r="G2">
-        <v>20.29089220704918</v>
+        <v>20.290892207049179</v>
       </c>
       <c r="H2">
         <v>2325.699074042961</v>
       </c>
       <c r="I2">
-        <v>0.0527882191818208</v>
+        <v>5.2788219181820799E-2</v>
       </c>
       <c r="J2">
         <v>13.21770854992792</v>
@@ -467,57 +505,57 @@
         <v>296.5511390943164</v>
       </c>
       <c r="M2">
-        <v>809.5172058820559</v>
+        <v>809.51720588205592</v>
       </c>
       <c r="N2">
         <v>292.281167878151</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>40.26294240757124</v>
+        <v>40.262942407571238</v>
       </c>
       <c r="C3">
-        <v>11.03177726618014</v>
+        <v>11.031777266180139</v>
       </c>
       <c r="D3">
-        <v>6.883545819437131</v>
+        <v>6.8835458194371313</v>
       </c>
       <c r="E3">
-        <v>0.5110300960950553</v>
+        <v>0.51103009609505534</v>
       </c>
       <c r="F3">
-        <v>0.5244095284724608</v>
+        <v>0.52440952847246081</v>
       </c>
       <c r="G3">
-        <v>11.14708573732059</v>
+        <v>11.147085737320589</v>
       </c>
       <c r="H3">
-        <v>3857.871243100613</v>
+        <v>3857.8712431006129</v>
       </c>
       <c r="I3">
-        <v>0.4525316035142168</v>
+        <v>0.45253160351421678</v>
       </c>
       <c r="J3">
-        <v>5.463262271950953</v>
+        <v>5.4632622719509527</v>
       </c>
       <c r="K3">
-        <v>93.91336843837053</v>
+        <v>93.913368438370526</v>
       </c>
       <c r="L3">
-        <v>500.54587031275</v>
+        <v>500.54587031275003</v>
       </c>
       <c r="M3">
         <v>1350.119045037231</v>
       </c>
       <c r="N3">
-        <v>491.6205450087382</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>491.62054500873819</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -525,16 +563,16 @@
         <v>50.62021232151892</v>
       </c>
       <c r="C4">
-        <v>5.121955803770106</v>
+        <v>5.1219558037701063</v>
       </c>
       <c r="D4">
-        <v>4.527444957057014</v>
+        <v>4.5274449570570141</v>
       </c>
       <c r="E4">
-        <v>3.600821865256876</v>
+        <v>3.6008218652568762</v>
       </c>
       <c r="F4">
-        <v>0.5845135375420796</v>
+        <v>0.58451353754207958</v>
       </c>
       <c r="G4">
         <v>17.49283470708178</v>
@@ -543,77 +581,77 @@
         <v>2579.589350689203</v>
       </c>
       <c r="I4">
-        <v>0.08431745518464601</v>
+        <v>8.4317455184646006E-2</v>
       </c>
       <c r="J4">
-        <v>9.449021267937496</v>
+        <v>9.4490212679374963</v>
       </c>
       <c r="K4">
-        <v>89.66082484112121</v>
+        <v>89.660824841121212</v>
       </c>
       <c r="L4">
-        <v>331.8728523170006</v>
+        <v>331.87285231700059</v>
       </c>
       <c r="M4">
-        <v>893.8350596867236</v>
+        <v>893.83505968672364</v>
       </c>
       <c r="N4">
-        <v>325.8153123087515</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>325.81531230875152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>54.95524617872434</v>
+        <v>54.955246178724337</v>
       </c>
       <c r="C5">
-        <v>2.527855476364493</v>
+        <v>2.5278554763644929</v>
       </c>
       <c r="D5">
-        <v>5.392277630744502</v>
+        <v>5.3922776307445019</v>
       </c>
       <c r="E5">
         <v>3.34730971371755</v>
       </c>
       <c r="F5">
-        <v>0.6105061964190099</v>
+        <v>0.61050619641900994</v>
       </c>
       <c r="G5">
-        <v>22.75080568215344</v>
+        <v>22.750805682153441</v>
       </c>
       <c r="H5">
-        <v>2173.697210166603</v>
+        <v>2173.6972101666029</v>
       </c>
       <c r="I5">
-        <v>0.0251453544478863</v>
+        <v>2.5145354447886299E-2</v>
       </c>
       <c r="J5">
-        <v>15.03175956895575</v>
+        <v>15.031759568955749</v>
       </c>
       <c r="K5">
-        <v>78.9771462965291</v>
+        <v>78.977146296529099</v>
       </c>
       <c r="L5">
-        <v>276.1900671904064</v>
+        <v>276.19006719040641</v>
       </c>
       <c r="M5">
-        <v>755.2676815406359</v>
+        <v>755.26768154063586</v>
       </c>
       <c r="N5">
-        <v>272.3539909177601</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>272.35399091776009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>46.92376606544713</v>
+        <v>46.923766065447133</v>
       </c>
       <c r="C6">
-        <v>6.419174300390296</v>
+        <v>6.4191743003902957</v>
       </c>
       <c r="D6">
         <v>7.586931943660602</v>
@@ -622,7 +660,7 @@
         <v>2.237807604251429</v>
       </c>
       <c r="F6">
-        <v>0.5720188701889128</v>
+        <v>0.57201887018891284</v>
       </c>
       <c r="G6">
         <v>11.33072706579696</v>
@@ -634,39 +672,39 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4.774585791165009</v>
+        <v>4.7745857911650091</v>
       </c>
       <c r="K6">
-        <v>92.20769582025241</v>
+        <v>92.207695820252411</v>
       </c>
       <c r="L6">
         <v>344.2727896126932</v>
       </c>
       <c r="M6">
-        <v>916.0737360067824</v>
+        <v>916.07373600678238</v>
       </c>
       <c r="N6">
-        <v>336.8097270891641</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>336.80972708916408</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>63.52800681634108</v>
+        <v>63.528006816341083</v>
       </c>
       <c r="C7">
         <v>1.785510740592144</v>
       </c>
       <c r="D7">
-        <v>2.835945872357115</v>
+        <v>2.8359458723571151</v>
       </c>
       <c r="E7">
         <v>3.583795006852597</v>
       </c>
       <c r="F7">
-        <v>0.6728101736225653</v>
+        <v>0.67281017362256534</v>
       </c>
       <c r="G7">
         <v>29.60804827162065</v>
@@ -678,42 +716,42 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>20.47446677461267</v>
+        <v>20.474466774612669</v>
       </c>
       <c r="K7">
-        <v>71.91692817723379</v>
+        <v>71.916928177233785</v>
       </c>
       <c r="L7">
         <v>204.9067067095429</v>
       </c>
       <c r="M7">
-        <v>574.1880875182785</v>
+        <v>574.18808751827851</v>
       </c>
       <c r="N7">
-        <v>203.5245233668712</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>203.52452336687119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>59.52819280792028</v>
+        <v>59.528192807920277</v>
       </c>
       <c r="C8">
-        <v>1.877759469789453</v>
+        <v>1.8777594697894531</v>
       </c>
       <c r="D8">
-        <v>4.537211742717773</v>
+        <v>4.5372117427177727</v>
       </c>
       <c r="E8">
-        <v>2.662107354262844</v>
+        <v>2.6621073542628442</v>
       </c>
       <c r="F8">
         <v>0.6754746181104565</v>
       </c>
       <c r="G8">
-        <v>28.17572337226011</v>
+        <v>28.175723372260109</v>
       </c>
       <c r="H8">
         <v>1942.718404594809</v>
@@ -722,110 +760,110 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>16.11536761047319</v>
+        <v>16.115367610473189</v>
       </c>
       <c r="K8">
-        <v>76.90162203507498</v>
+        <v>76.901622035074979</v>
       </c>
       <c r="L8">
-        <v>244.6735798447828</v>
+        <v>244.67357984478281</v>
       </c>
       <c r="M8">
-        <v>675.08186344387</v>
+        <v>675.08186344387002</v>
       </c>
       <c r="N8">
         <v>241.9092154786828</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>17.61945115285926</v>
+        <v>17.619451152859259</v>
       </c>
       <c r="C9">
-        <v>37.94096527853981</v>
+        <v>37.940965278539807</v>
       </c>
       <c r="D9">
         <v>10.87915875250474</v>
       </c>
       <c r="E9">
-        <v>0.1611649990081787</v>
+        <v>0.16116499900817871</v>
       </c>
       <c r="F9">
-        <v>0.3508607481562649</v>
+        <v>0.35086074815626489</v>
       </c>
       <c r="G9">
-        <v>9.795219619991258</v>
+        <v>9.7952196199912578</v>
       </c>
       <c r="H9">
-        <v>6772.698365472257</v>
+        <v>6772.6983654722571</v>
       </c>
       <c r="I9">
         <v>2.379758667666465</v>
       </c>
       <c r="J9">
-        <v>1.835883950116113</v>
+        <v>1.8358839501161131</v>
       </c>
       <c r="K9">
-        <v>96.74228375661187</v>
+        <v>96.742283756611869</v>
       </c>
       <c r="L9">
-        <v>883.2354325745832</v>
+        <v>883.23543257458323</v>
       </c>
       <c r="M9">
-        <v>2402.772272982074</v>
+        <v>2402.7722729820739</v>
       </c>
       <c r="N9">
-        <v>869.6450453688915</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>869.64504536889149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>15.36316812562291</v>
+        <v>15.363168125622909</v>
       </c>
       <c r="C10">
-        <v>52.49537343916018</v>
+        <v>52.495373439160183</v>
       </c>
       <c r="D10">
         <v>13.2691677834373</v>
       </c>
       <c r="E10">
-        <v>0.6227245088666678</v>
+        <v>0.62272450886666775</v>
       </c>
       <c r="F10">
-        <v>0.2996977354123374</v>
+        <v>0.29969773541233741</v>
       </c>
       <c r="G10">
-        <v>5.77261095168069</v>
+        <v>5.7726109516806901</v>
       </c>
       <c r="H10">
-        <v>17362.9237293005</v>
+        <v>17362.923729300499</v>
       </c>
       <c r="I10">
-        <v>6.029748063883744</v>
+        <v>6.0297480638837442</v>
       </c>
       <c r="J10">
-        <v>0.3899229457601905</v>
+        <v>0.38992294576019049</v>
       </c>
       <c r="K10">
-        <v>89.74093292490579</v>
+        <v>89.740932924905792</v>
       </c>
       <c r="L10">
-        <v>2246.153258151628</v>
+        <v>2246.1532581516281</v>
       </c>
       <c r="M10">
-        <v>6219.490678977664</v>
+        <v>6219.4906789776642</v>
       </c>
       <c r="N10">
-        <v>2223.111544307542</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>2223.1115443075419</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -833,60 +871,60 @@
         <v>14.30142032768345</v>
       </c>
       <c r="C11">
-        <v>53.51797764160438</v>
+        <v>53.517977641604382</v>
       </c>
       <c r="D11">
-        <v>9.318049426656216</v>
+        <v>9.3180494266562164</v>
       </c>
       <c r="E11">
-        <v>0.6896003847941756</v>
+        <v>0.68960038479417562</v>
       </c>
       <c r="F11">
-        <v>0.2820556913065957</v>
+        <v>0.28205569130659569</v>
       </c>
       <c r="G11">
-        <v>5.178993567824364</v>
+        <v>5.1789935678243637</v>
       </c>
       <c r="H11">
         <v>15258.1178458333</v>
       </c>
       <c r="I11">
-        <v>7.373995814123191</v>
+        <v>7.3739958141231909</v>
       </c>
       <c r="J11">
         <v>1.008225663099438</v>
       </c>
       <c r="K11">
-        <v>93.24415493465494</v>
+        <v>93.244154934654944</v>
       </c>
       <c r="L11">
-        <v>1976.431951412539</v>
+        <v>1976.4319514125391</v>
       </c>
       <c r="M11">
-        <v>5462.746151530801</v>
+        <v>5462.7461515308014</v>
       </c>
       <c r="N11">
         <v>1955.110977509253</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>20.05801755294669</v>
+        <v>20.058017552946691</v>
       </c>
       <c r="C12">
-        <v>44.33797216333915</v>
+        <v>44.337972163339153</v>
       </c>
       <c r="D12">
-        <v>6.815467716660351</v>
+        <v>6.8154677166603506</v>
       </c>
       <c r="E12">
-        <v>0.5221640574745834</v>
+        <v>0.52216405747458339</v>
       </c>
       <c r="F12">
-        <v>0.3200998076208634</v>
+        <v>0.32009980762086337</v>
       </c>
       <c r="G12">
         <v>2.281271904939786</v>
@@ -895,16 +933,16 @@
         <v>11256.80823656917</v>
       </c>
       <c r="I12">
-        <v>5.325282161356881</v>
+        <v>5.3252821613568813</v>
       </c>
       <c r="J12">
-        <v>0.89039437007159</v>
+        <v>0.89039437007158995</v>
       </c>
       <c r="K12">
-        <v>98.175914681633</v>
+        <v>98.175914681633003</v>
       </c>
       <c r="L12">
-        <v>1461.046604443662</v>
+        <v>1461.0466044436621</v>
       </c>
       <c r="M12">
         <v>4017.436265259179</v>
@@ -913,215 +951,215 @@
         <v>1443.085792150707</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>19.16674498224893</v>
+        <v>19.166744982248929</v>
       </c>
       <c r="C13">
-        <v>50.17526048159198</v>
+        <v>50.175260481591977</v>
       </c>
       <c r="D13">
-        <v>6.467051623621956</v>
+        <v>6.4670516236219564</v>
       </c>
       <c r="E13">
         <v>0.2758259535767138</v>
       </c>
       <c r="F13">
-        <v>0.3004105060954316</v>
+        <v>0.30041050609543157</v>
       </c>
       <c r="G13">
-        <v>7.669171390625706</v>
+        <v>7.6691713906257064</v>
       </c>
       <c r="H13">
-        <v>16387.05112588895</v>
+        <v>16387.051125888949</v>
       </c>
       <c r="I13">
-        <v>4.968424572143704</v>
+        <v>4.9684245721437037</v>
       </c>
       <c r="J13">
-        <v>3.082516969880089</v>
+        <v>3.0825169698800892</v>
       </c>
       <c r="K13">
-        <v>94.14010166510707</v>
+        <v>94.140101665107068</v>
       </c>
       <c r="L13">
         <v>2119.370352234364</v>
       </c>
       <c r="M13">
-        <v>5869.010159151425</v>
+        <v>5869.0101591514249</v>
       </c>
       <c r="N13">
-        <v>2097.690009718431</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>2097.6900097184312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>17.51137386381743</v>
+        <v>17.511373863817429</v>
       </c>
       <c r="C14">
-        <v>51.1531757110788</v>
+        <v>51.153175711078802</v>
       </c>
       <c r="D14">
-        <v>4.116544499993324</v>
+        <v>4.1165444999933243</v>
       </c>
       <c r="E14">
-        <v>0.3348010824993253</v>
+        <v>0.33480108249932528</v>
       </c>
       <c r="F14">
-        <v>0.2837169487102074</v>
+        <v>0.28371694871020742</v>
       </c>
       <c r="G14">
         <v>1.890207582619041</v>
       </c>
       <c r="H14">
-        <v>14577.7855861336</v>
+        <v>14577.785586133599</v>
       </c>
       <c r="I14">
-        <v>4.295180123881437</v>
+        <v>4.2951801238814369</v>
       </c>
       <c r="J14">
-        <v>0.4300665576010942</v>
+        <v>0.43006655760109419</v>
       </c>
       <c r="K14">
-        <v>98.68756043433677</v>
+        <v>98.687560434336774</v>
       </c>
       <c r="L14">
-        <v>1888.763023770469</v>
+        <v>1888.7630237704691</v>
       </c>
       <c r="M14">
-        <v>5214.139968995532</v>
+        <v>5214.1399689955324</v>
       </c>
       <c r="N14">
-        <v>1867.722615104493</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>1867.7226151044929</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>67.87025089724921</v>
+        <v>67.870250897249207</v>
       </c>
       <c r="C15">
-        <v>1.246938842814416</v>
+        <v>1.2469388428144159</v>
       </c>
       <c r="D15">
-        <v>6.921775278169662</v>
+        <v>6.9217752781696618</v>
       </c>
       <c r="E15">
-        <v>0.4935111152008176</v>
+        <v>0.49351111520081758</v>
       </c>
       <c r="F15">
-        <v>0.6887192116992082</v>
+        <v>0.68871921169920824</v>
       </c>
       <c r="G15">
-        <v>35.13108313782141</v>
+        <v>35.131083137821413</v>
       </c>
       <c r="H15">
-        <v>1770.10033306852</v>
+        <v>1770.1003330685201</v>
       </c>
       <c r="I15">
-        <v>0.1567923172842711</v>
+        <v>0.15679231728427109</v>
       </c>
       <c r="J15">
-        <v>30.41659565060399</v>
+        <v>30.416595650603991</v>
       </c>
       <c r="K15">
-        <v>54.04237638576888</v>
+        <v>54.042376385768883</v>
       </c>
       <c r="L15">
-        <v>216.1536072766887</v>
+        <v>216.15360727668869</v>
       </c>
       <c r="M15">
-        <v>630.293380586358</v>
+        <v>630.29338058635801</v>
       </c>
       <c r="N15">
-        <v>217.2941540444426</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>217.29415404444259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>35.42994354356779</v>
+        <v>35.429943543567788</v>
       </c>
       <c r="C16">
-        <v>35.31064770650119</v>
+        <v>35.310647706501193</v>
       </c>
       <c r="D16">
-        <v>6.931845442159101</v>
+        <v>6.9318454421591014</v>
       </c>
       <c r="E16">
         <v>0.4418278462253511</v>
       </c>
       <c r="F16">
-        <v>0.4235142188845202</v>
+        <v>0.42351421888452018</v>
       </c>
       <c r="G16">
-        <v>19.51445437589427</v>
+        <v>19.514454375894271</v>
       </c>
       <c r="H16">
-        <v>7998.522847252898</v>
+        <v>7998.5228472528979</v>
       </c>
       <c r="I16">
-        <v>3.425959999731276</v>
+        <v>3.4259599997312762</v>
       </c>
       <c r="J16">
-        <v>12.44518260937184</v>
+        <v>12.445182609371839</v>
       </c>
       <c r="K16">
-        <v>78.25282608973794</v>
+        <v>78.252826089737937</v>
       </c>
       <c r="L16">
         <v>1032.880825997968</v>
       </c>
       <c r="M16">
-        <v>2859.859571833895</v>
+        <v>2859.8595718338952</v>
       </c>
       <c r="N16">
-        <v>1022.270650005189</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>1022.2706500051891</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>21.23450558574405</v>
+        <v>21.234505585744049</v>
       </c>
       <c r="C17">
-        <v>45.33013839973137</v>
+        <v>45.330138399731368</v>
       </c>
       <c r="D17">
-        <v>5.43079354101792</v>
+        <v>5.4307935410179198</v>
       </c>
       <c r="E17">
-        <v>0.7859304663725197</v>
+        <v>0.78593046637251973</v>
       </c>
       <c r="F17">
-        <v>0.3245415063283872</v>
+        <v>0.32454150632838719</v>
       </c>
       <c r="G17">
-        <v>6.647891589091159</v>
+        <v>6.6478915890911594</v>
       </c>
       <c r="H17">
-        <v>15242.11950166523</v>
+        <v>15242.119501665229</v>
       </c>
       <c r="I17">
         <v>3.871316547156312</v>
       </c>
       <c r="J17">
-        <v>3.572373511269689</v>
+        <v>3.5723735112696891</v>
       </c>
       <c r="K17">
-        <v>94.93667979259044</v>
+        <v>94.936679792590439</v>
       </c>
       <c r="L17">
         <v>1971.308529852857</v>
@@ -1130,244 +1168,244 @@
         <v>5455.100683837788</v>
       </c>
       <c r="N17">
-        <v>1950.731369954562</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>1950.7313699545621</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>45.29895375089836</v>
+        <v>45.298953750898363</v>
       </c>
       <c r="C18">
-        <v>8.689200102526229</v>
+        <v>8.6892001025262289</v>
       </c>
       <c r="D18">
         <v>5.954685976030305</v>
       </c>
       <c r="E18">
-        <v>0.4847003263421357</v>
+        <v>0.48470032634213572</v>
       </c>
       <c r="F18">
-        <v>0.567202231803094</v>
+        <v>0.56720223180309404</v>
       </c>
       <c r="G18">
-        <v>16.45461391162826</v>
+        <v>16.454613911628261</v>
       </c>
       <c r="H18">
-        <v>3258.864220824093</v>
+        <v>3258.8642208240931</v>
       </c>
       <c r="I18">
-        <v>0.2268524403916672</v>
+        <v>0.22685244039166719</v>
       </c>
       <c r="J18">
-        <v>10.05272426118609</v>
+        <v>10.052724261186089</v>
       </c>
       <c r="K18">
-        <v>88.21991799050011</v>
+        <v>88.219917990500107</v>
       </c>
       <c r="L18">
-        <v>420.5510939303929</v>
+        <v>420.55109393039288</v>
       </c>
       <c r="M18">
-        <v>1139.918357979664</v>
+        <v>1139.9183579796641</v>
       </c>
       <c r="N18">
-        <v>413.640668748109</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>413.64066874810902</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>30.45719309884589</v>
+        <v>30.457193098845892</v>
       </c>
       <c r="C19">
-        <v>24.28841204964556</v>
+        <v>24.288412049645562</v>
       </c>
       <c r="D19">
-        <v>4.348078329348937</v>
+        <v>4.3480783293489367</v>
       </c>
       <c r="E19">
-        <v>0.9293904411606491</v>
+        <v>0.92939044116064906</v>
       </c>
       <c r="F19">
         <v>0.4321758339938242</v>
       </c>
       <c r="G19">
-        <v>6.552273343550041</v>
+        <v>6.5522733435500413</v>
       </c>
       <c r="H19">
-        <v>5876.714289646596</v>
+        <v>5876.7142896465957</v>
       </c>
       <c r="I19">
         <v>1.150459263590164</v>
       </c>
       <c r="J19">
-        <v>4.673195257782936</v>
+        <v>4.6731952577829361</v>
       </c>
       <c r="K19">
         <v>92.20118930679746</v>
       </c>
       <c r="L19">
-        <v>763.4344127416537</v>
+        <v>763.43441274165366</v>
       </c>
       <c r="M19">
-        <v>2080.497479666107</v>
+        <v>2080.4974796661072</v>
       </c>
       <c r="N19">
-        <v>752.0714952502043</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>752.07149525020429</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>25.50374848506181</v>
+        <v>25.503748485061809</v>
       </c>
       <c r="C20">
-        <v>34.06190565292491</v>
+        <v>34.061905652924906</v>
       </c>
       <c r="D20">
         <v>6.408225407358259</v>
       </c>
       <c r="E20">
-        <v>0.598851015092805</v>
+        <v>0.59885101509280503</v>
       </c>
       <c r="F20">
-        <v>0.3993033595907036</v>
+        <v>0.39930335959070362</v>
       </c>
       <c r="G20">
-        <v>6.741719777346589</v>
+        <v>6.7417197773465887</v>
       </c>
       <c r="H20">
-        <v>8315.858236625791</v>
+        <v>8315.8582366257906</v>
       </c>
       <c r="I20">
         <v>2.030253535485826</v>
       </c>
       <c r="J20">
-        <v>6.380407977849245</v>
+        <v>6.3804079778492451</v>
       </c>
       <c r="K20">
         <v>92.71780097624287</v>
       </c>
       <c r="L20">
-        <v>1078.810894737477</v>
+        <v>1078.8108947374769</v>
       </c>
       <c r="M20">
-        <v>2961.0031844539</v>
+        <v>2961.0031844538998</v>
       </c>
       <c r="N20">
         <v>1064.978226725653</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>35.11116945155663</v>
+        <v>35.111169451556627</v>
       </c>
       <c r="C21">
         <v>20.86064103350509</v>
       </c>
       <c r="D21">
-        <v>7.935993327555479</v>
+        <v>7.9359933275554786</v>
       </c>
       <c r="E21">
-        <v>0.5767785129137337</v>
+        <v>0.57677851291373372</v>
       </c>
       <c r="F21">
-        <v>0.4892116059563705</v>
+        <v>0.48921160595637048</v>
       </c>
       <c r="G21">
         <v>10.38216781162191</v>
       </c>
       <c r="H21">
-        <v>4027.230225816369</v>
+        <v>4027.2302258163691</v>
       </c>
       <c r="I21">
-        <v>0.6795320514356718</v>
+        <v>0.67953205143567175</v>
       </c>
       <c r="J21">
-        <v>4.637969244504347</v>
+        <v>4.6379692445043474</v>
       </c>
       <c r="K21">
-        <v>93.69533125063754</v>
+        <v>93.695331250637537</v>
       </c>
       <c r="L21">
-        <v>524.6246600947806</v>
+        <v>524.62466009478055</v>
       </c>
       <c r="M21">
         <v>1413.051858770762</v>
       </c>
       <c r="N21">
-        <v>515.0570633892382</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>515.05706338923824</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>40.17816089763073</v>
+        <v>40.178160897630733</v>
       </c>
       <c r="C22">
         <v>13.03069689311087</v>
       </c>
       <c r="D22">
-        <v>9.150262002367526</v>
+        <v>9.1502620023675263</v>
       </c>
       <c r="E22">
         <v>0.2169596962630749</v>
       </c>
       <c r="F22">
-        <v>0.5316048981039785</v>
+        <v>0.53160489810397848</v>
       </c>
       <c r="G22">
-        <v>13.56893428601325</v>
+        <v>13.568934286013249</v>
       </c>
       <c r="H22">
-        <v>3961.323711618781</v>
+        <v>3961.3237116187811</v>
       </c>
       <c r="I22">
-        <v>0.626631936756894</v>
+        <v>0.62663193675689399</v>
       </c>
       <c r="J22">
-        <v>7.358373020542786</v>
+        <v>7.3583730205427864</v>
       </c>
       <c r="K22">
-        <v>91.41282322816551</v>
+        <v>91.412823228165507</v>
       </c>
       <c r="L22">
-        <v>513.4424506157682</v>
+        <v>513.44245061576817</v>
       </c>
       <c r="M22">
         <v>1389.778015327747</v>
       </c>
       <c r="N22">
-        <v>504.8021536969434</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>504.80215369694338</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>63.43649379268754</v>
+        <v>63.436493792687543</v>
       </c>
       <c r="C23">
         <v>1.190218329429626</v>
       </c>
       <c r="D23">
-        <v>4.347207461250946</v>
+        <v>4.3472074612509459</v>
       </c>
       <c r="E23">
-        <v>0.46892617829144</v>
+        <v>0.46892617829144001</v>
       </c>
       <c r="F23">
         <v>0.7312460008324706</v>
@@ -1382,177 +1420,177 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>16.98136953054927</v>
+        <v>16.981369530549269</v>
       </c>
       <c r="K23">
-        <v>65.55566290771822</v>
+        <v>65.555662907718215</v>
       </c>
       <c r="L23">
         <v>229.6191583725905</v>
       </c>
       <c r="M23">
-        <v>648.1210357981349</v>
+        <v>648.12103579813493</v>
       </c>
       <c r="N23">
-        <v>228.5652724768952</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>228.56527247689519</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>55.31331397942267</v>
+        <v>55.313313979422666</v>
       </c>
       <c r="C24">
-        <v>2.48995644506067</v>
+        <v>2.4899564450606699</v>
       </c>
       <c r="D24">
-        <v>3.198251221328974</v>
+        <v>3.1982512213289742</v>
       </c>
       <c r="E24">
-        <v>0.8592898084316403</v>
+        <v>0.85928980843164027</v>
       </c>
       <c r="F24">
-        <v>0.6338239457691088</v>
+        <v>0.63382394576910883</v>
       </c>
       <c r="G24">
         <v>24.49739028816111</v>
       </c>
       <c r="H24">
-        <v>2084.816568944603</v>
+        <v>2084.8165689446032</v>
       </c>
       <c r="I24">
-        <v>0.052712217438966</v>
+        <v>5.2712217438966001E-2</v>
       </c>
       <c r="J24">
-        <v>21.10828702570871</v>
+        <v>21.108287025708709</v>
       </c>
       <c r="K24">
-        <v>72.63708515092731</v>
+        <v>72.637085150927305</v>
       </c>
       <c r="L24">
-        <v>263.0090951252722</v>
+        <v>263.00909512527221</v>
       </c>
       <c r="M24">
-        <v>730.1002738390977</v>
+        <v>730.10027383909767</v>
       </c>
       <c r="N24">
-        <v>260.5055938406292</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>260.50559384062922</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>63.0239311754849</v>
+        <v>63.023931175484897</v>
       </c>
       <c r="C25">
-        <v>1.514914393192157</v>
+        <v>1.5149143931921569</v>
       </c>
       <c r="D25">
-        <v>2.16577195096761</v>
+        <v>2.1657719509676099</v>
       </c>
       <c r="E25">
-        <v>2.594881202094257</v>
+        <v>2.5948812020942569</v>
       </c>
       <c r="F25">
-        <v>0.6942912861995865</v>
+        <v>0.69429128619958647</v>
       </c>
       <c r="G25">
-        <v>36.2186062240653</v>
+        <v>36.218606224065297</v>
       </c>
       <c r="H25">
-        <v>1731.541379835457</v>
+        <v>1731.5413798354571</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>25.86648106225766</v>
+        <v>25.866481062257659</v>
       </c>
       <c r="K25">
-        <v>62.32873280387139</v>
+        <v>62.328732803871389</v>
       </c>
       <c r="L25">
-        <v>212.869381655542</v>
+        <v>212.86938165554201</v>
       </c>
       <c r="M25">
-        <v>612.3595700376941</v>
+        <v>612.35957003769408</v>
       </c>
       <c r="N25">
         <v>213.1094144472176</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>56.86250574945007</v>
+        <v>56.862505749450072</v>
       </c>
       <c r="C26">
-        <v>3.590192517731339</v>
+        <v>3.5901925177313392</v>
       </c>
       <c r="D26">
-        <v>5.246787500800565</v>
+        <v>5.2467875008005649</v>
       </c>
       <c r="E26">
-        <v>0.6531933904625475</v>
+        <v>0.65319339046254754</v>
       </c>
       <c r="F26">
-        <v>0.627579502935987</v>
+        <v>0.62757950293598697</v>
       </c>
       <c r="G26">
-        <v>22.42149642261211</v>
+        <v>22.421496422612108</v>
       </c>
       <c r="H26">
-        <v>2337.985254392028</v>
+        <v>2337.9852543920279</v>
       </c>
       <c r="I26">
-        <v>0.0504608789924532</v>
+        <v>5.0460878992453197E-2</v>
       </c>
       <c r="J26">
-        <v>18.15474516479298</v>
+        <v>18.154745164792981</v>
       </c>
       <c r="K26">
-        <v>73.33979171235114</v>
+        <v>73.339791712351143</v>
       </c>
       <c r="L26">
-        <v>296.3231306593303</v>
+        <v>296.32313065933027</v>
       </c>
       <c r="M26">
-        <v>818.8341932573401</v>
+        <v>818.83419325734008</v>
       </c>
       <c r="N26">
-        <v>293.1068369116815</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>293.10683691168151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>49.45055994030554</v>
+        <v>49.450559940305538</v>
       </c>
       <c r="C27">
-        <v>6.955894736165646</v>
+        <v>6.9558947361656456</v>
       </c>
       <c r="D27">
-        <v>6.192706990987062</v>
+        <v>6.1927069909870616</v>
       </c>
       <c r="E27">
         <v>1.205793337430805</v>
       </c>
       <c r="F27">
-        <v>0.5970215269262553</v>
+        <v>0.59702152692625532</v>
       </c>
       <c r="G27">
-        <v>21.15983967960346</v>
+        <v>21.159839679603461</v>
       </c>
       <c r="H27">
-        <v>2836.704265803099</v>
+        <v>2836.7042658030991</v>
       </c>
       <c r="I27">
         <v>0.1563910016557202</v>
@@ -1561,86 +1599,86 @@
         <v>15.77032309724018</v>
       </c>
       <c r="K27">
-        <v>80.52545750688296</v>
+        <v>80.525457506882958</v>
       </c>
       <c r="L27">
         <v>363.2247030360495</v>
       </c>
       <c r="M27">
-        <v>994.3143692650381</v>
+        <v>994.31436926503807</v>
       </c>
       <c r="N27">
-        <v>358.2899300981744</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>358.28993009817441</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>35.46415774035268</v>
+        <v>35.464157740352682</v>
       </c>
       <c r="C28">
-        <v>14.17634762328817</v>
+        <v>14.176347623288169</v>
       </c>
       <c r="D28">
-        <v>6.436137508717366</v>
+        <v>6.4361375087173656</v>
       </c>
       <c r="E28">
         <v>0.8775288937613368</v>
       </c>
       <c r="F28">
-        <v>0.4903740082809236</v>
+        <v>0.49037400828092359</v>
       </c>
       <c r="G28">
-        <v>9.257407591212541</v>
+        <v>9.2574075912125409</v>
       </c>
       <c r="H28">
-        <v>4739.545566141605</v>
+        <v>4739.5455661416054</v>
       </c>
       <c r="I28">
         <v>1.032791566103697</v>
       </c>
       <c r="J28">
-        <v>3.450421162415296</v>
+        <v>3.4504211624152958</v>
       </c>
       <c r="K28">
-        <v>92.71713798807468</v>
+        <v>92.717137988074683</v>
       </c>
       <c r="L28">
-        <v>615.2713792046239</v>
+        <v>615.27137920462394</v>
       </c>
       <c r="M28">
         <v>1667.852474129902</v>
       </c>
       <c r="N28">
-        <v>605.175928259722</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>605.17592825972201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>51.99501194438199</v>
+        <v>51.995011944381993</v>
       </c>
       <c r="C29">
-        <v>5.507609047344886</v>
+        <v>5.5076090473448858</v>
       </c>
       <c r="D29">
-        <v>9.474488289561123</v>
+        <v>9.4744882895611227</v>
       </c>
       <c r="E29">
-        <v>0.5753325531259179</v>
+        <v>0.57533255312591791</v>
       </c>
       <c r="F29">
-        <v>0.5975487925752532</v>
+        <v>0.59754879257525317</v>
       </c>
       <c r="G29">
-        <v>20.73131763609126</v>
+        <v>20.731317636091259</v>
       </c>
       <c r="H29">
-        <v>2676.114025985822</v>
+        <v>2676.1140259858221</v>
       </c>
       <c r="I29">
         <v>0.1284827652852982</v>
@@ -1649,19 +1687,19 @@
         <v>10.1671498909127</v>
       </c>
       <c r="K29">
-        <v>88.92858477483969</v>
+        <v>88.928584774839692</v>
       </c>
       <c r="L29">
-        <v>344.0280367151744</v>
+        <v>344.02803671517438</v>
       </c>
       <c r="M29">
-        <v>928.9611494469123</v>
+        <v>928.96114944691226</v>
       </c>
       <c r="N29">
         <v>338.0010454270913</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1669,7 +1707,7 @@
         <v>51.14156642848684</v>
       </c>
       <c r="C30">
-        <v>4.189556663186522</v>
+        <v>4.1895566631865222</v>
       </c>
       <c r="D30">
         <v>2.642733120592311</v>
@@ -1678,19 +1716,19 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0.6136121313247713</v>
+        <v>0.61361213132477133</v>
       </c>
       <c r="G30">
-        <v>21.62209908528894</v>
+        <v>21.622099085288941</v>
       </c>
       <c r="H30">
-        <v>2306.988959554583</v>
+        <v>2306.9889595545828</v>
       </c>
       <c r="I30">
-        <v>0.5403816641774029</v>
+        <v>0.54038166417740285</v>
       </c>
       <c r="J30">
-        <v>12.91715241968632</v>
+        <v>12.917152419686319</v>
       </c>
       <c r="K30">
         <v>86.25314706005156</v>
@@ -1699,77 +1737,77 @@
         <v>295.4474327419419</v>
       </c>
       <c r="M30">
-        <v>800.7978380153907</v>
+        <v>800.79783801539065</v>
       </c>
       <c r="N30">
-        <v>290.5902912739443</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>290.59029127394427</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>57.72921800526092</v>
+        <v>57.729218005260918</v>
       </c>
       <c r="C31">
         <v>1.728936599101871</v>
       </c>
       <c r="D31">
-        <v>5.554498312994838</v>
+        <v>5.5544983129948378</v>
       </c>
       <c r="E31">
         <v>2.888642466859892</v>
       </c>
       <c r="F31">
-        <v>0.636561198552954</v>
+        <v>0.63656119855295401</v>
       </c>
       <c r="G31">
-        <v>25.54404338006862</v>
+        <v>25.544043380068619</v>
       </c>
       <c r="H31">
-        <v>2172.175584543496</v>
+        <v>2172.1755845434959</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>21.31344106164761</v>
+        <v>21.313441061647609</v>
       </c>
       <c r="K31">
-        <v>67.24780641379766</v>
+        <v>67.247806413797662</v>
       </c>
       <c r="L31">
-        <v>272.9965943484873</v>
+        <v>272.99659434848729</v>
       </c>
       <c r="M31">
-        <v>763.0829717943414</v>
+        <v>763.08297179434135</v>
       </c>
       <c r="N31">
-        <v>270.9536786520629</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>270.95367865206288</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>57.08003637046204</v>
+        <v>57.080036370462039</v>
       </c>
       <c r="C32">
-        <v>2.230407469323836</v>
+        <v>2.2304074693238358</v>
       </c>
       <c r="D32">
-        <v>3.223034903930966</v>
+        <v>3.2230349039309658</v>
       </c>
       <c r="E32">
-        <v>0.8257865556515753</v>
+        <v>0.82578655565157533</v>
       </c>
       <c r="F32">
-        <v>0.6499432476048241</v>
+        <v>0.64994324760482414</v>
       </c>
       <c r="G32">
-        <v>27.40311649686191</v>
+        <v>27.403116496861909</v>
       </c>
       <c r="H32">
         <v>2084.056359244511</v>
@@ -1778,121 +1816,121 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>20.88226440828294</v>
+        <v>20.882264408282939</v>
       </c>
       <c r="K32">
-        <v>74.72734836337622</v>
+        <v>74.727348363376223</v>
       </c>
       <c r="L32">
-        <v>262.5113681373679</v>
+        <v>262.51136813736792</v>
       </c>
       <c r="M32">
-        <v>729.4058965983114</v>
+        <v>729.40589659831141</v>
       </c>
       <c r="N32">
-        <v>260.0852371064146</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>260.08523710641458</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>47.05712622962892</v>
+        <v>47.057126229628921</v>
       </c>
       <c r="C33">
-        <v>8.298749092500657</v>
+        <v>8.2987490925006568</v>
       </c>
       <c r="D33">
-        <v>6.569926906377077</v>
+        <v>6.5699269063770771</v>
       </c>
       <c r="E33">
-        <v>0.2907868067268282</v>
+        <v>0.29078680672682822</v>
       </c>
       <c r="F33">
-        <v>0.5779781468881993</v>
+        <v>0.57797814688819926</v>
       </c>
       <c r="G33">
-        <v>16.22094482299872</v>
+        <v>16.220944822998721</v>
       </c>
       <c r="H33">
         <v>3267.233735453337</v>
       </c>
       <c r="I33">
-        <v>0.1863412064267322</v>
+        <v>0.18634120642673219</v>
       </c>
       <c r="J33">
-        <v>9.814441920025274</v>
+        <v>9.8144419200252742</v>
       </c>
       <c r="K33">
-        <v>88.68407513364218</v>
+        <v>88.684075133642182</v>
       </c>
       <c r="L33">
         <v>421.4849127579115</v>
       </c>
       <c r="M33">
-        <v>1142.256261417965</v>
+        <v>1142.2562614179651</v>
       </c>
       <c r="N33">
-        <v>414.5387211180146</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>414.53872111801462</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>43.93822079437086</v>
+        <v>43.938220794370856</v>
       </c>
       <c r="C34">
-        <v>9.51457959599793</v>
+        <v>9.5145795959979296</v>
       </c>
       <c r="D34">
-        <v>7.934611034579575</v>
+        <v>7.9346110345795751</v>
       </c>
       <c r="E34">
         <v>1.155805506277829</v>
       </c>
       <c r="F34">
-        <v>0.5476419457700104</v>
+        <v>0.54764194577001035</v>
       </c>
       <c r="G34">
-        <v>15.42228232719935</v>
+        <v>15.422282327199349</v>
       </c>
       <c r="H34">
-        <v>3411.853886820376</v>
+        <v>3411.8538868203759</v>
       </c>
       <c r="I34">
-        <v>0.5485555564519018</v>
+        <v>0.54855555645190179</v>
       </c>
       <c r="J34">
-        <v>8.455070282798261</v>
+        <v>8.4550702827982605</v>
       </c>
       <c r="K34">
         <v>88.87633751728572</v>
       </c>
       <c r="L34">
-        <v>441.0372007140167</v>
+        <v>441.03720071401671</v>
       </c>
       <c r="M34">
-        <v>1193.40778264367</v>
+        <v>1193.4077826436701</v>
       </c>
       <c r="N34">
-        <v>433.5746826808787</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>433.57468268087871</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>39.84132496188977</v>
+        <v>39.841324961889768</v>
       </c>
       <c r="C35">
-        <v>15.04244356256095</v>
+        <v>15.042443562560949</v>
       </c>
       <c r="D35">
-        <v>7.101828022859991</v>
+        <v>7.1018280228599906</v>
       </c>
       <c r="E35">
         <v>1.03897254448384</v>
@@ -1907,130 +1945,130 @@
         <v>4718.744421876967</v>
       </c>
       <c r="I35">
-        <v>0.6917325721587986</v>
+        <v>0.69173257215879858</v>
       </c>
       <c r="J35">
-        <v>6.213091540848836</v>
+        <v>6.2130915408488363</v>
       </c>
       <c r="K35">
-        <v>92.96437530429103</v>
+        <v>92.964375304291025</v>
       </c>
       <c r="L35">
-        <v>611.6591498541925</v>
+        <v>611.65914985419249</v>
       </c>
       <c r="M35">
-        <v>1661.369788016911</v>
+        <v>1661.3697880169109</v>
       </c>
       <c r="N35">
-        <v>601.9726844018487</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>601.97268440184871</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>29.1151769895805</v>
+        <v>29.115176989580501</v>
       </c>
       <c r="C36">
         <v>28.76625370990951</v>
       </c>
       <c r="D36">
-        <v>7.114362576976418</v>
+        <v>7.1143625769764176</v>
       </c>
       <c r="E36">
-        <v>0.8062066277489066</v>
+        <v>0.80620662774890661</v>
       </c>
       <c r="F36">
-        <v>0.4206481958099175</v>
+        <v>0.42064819580991752</v>
       </c>
       <c r="G36">
-        <v>10.45998179470189</v>
+        <v>10.459981794701889</v>
       </c>
       <c r="H36">
-        <v>6936.053545840085</v>
+        <v>6936.0535458400846</v>
       </c>
       <c r="I36">
         <v>1.792057632701471</v>
       </c>
       <c r="J36">
-        <v>5.395814450457692</v>
+        <v>5.3958144504576921</v>
       </c>
       <c r="K36">
-        <v>91.75742833758704</v>
+        <v>91.757428337587044</v>
       </c>
       <c r="L36">
-        <v>899.8841834789891</v>
+        <v>899.88418347898914</v>
       </c>
       <c r="M36">
-        <v>2463.749009162757</v>
+        <v>2463.7490091627569</v>
       </c>
       <c r="N36">
-        <v>887.6952230648255</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>887.69522306482554</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>25.98819750928669</v>
+        <v>25.988197509286689</v>
       </c>
       <c r="C37">
-        <v>30.92943499359535</v>
+        <v>30.929434993595351</v>
       </c>
       <c r="D37">
-        <v>6.290099176112562</v>
+        <v>6.2900991761125624</v>
       </c>
       <c r="E37">
-        <v>0.939965108409524</v>
+        <v>0.93996510840952396</v>
       </c>
       <c r="F37">
-        <v>0.4122753427436692</v>
+        <v>0.41227534274366923</v>
       </c>
       <c r="G37">
-        <v>5.550344960647635</v>
+        <v>5.5503449606476352</v>
       </c>
       <c r="H37">
-        <v>7153.635682181979</v>
+        <v>7153.6356821819791</v>
       </c>
       <c r="I37">
         <v>1.098831067793071</v>
       </c>
       <c r="J37">
-        <v>4.195835487917066</v>
+        <v>4.1958354879170656</v>
       </c>
       <c r="K37">
-        <v>95.25531820763717</v>
+        <v>95.255318207637174</v>
       </c>
       <c r="L37">
-        <v>929.6331844297629</v>
+        <v>929.63318442976288</v>
       </c>
       <c r="M37">
         <v>2539.247039832424</v>
       </c>
       <c r="N37">
-        <v>916.4124450258676</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>916.41244502586756</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>49.48326593003003</v>
+        <v>49.483265930030029</v>
       </c>
       <c r="C38">
         <v>8.157735611894168</v>
       </c>
       <c r="D38">
-        <v>5.485104047693312</v>
+        <v>5.4851040476933122</v>
       </c>
       <c r="E38">
-        <v>0.2154139685444534</v>
+        <v>0.21541396854445341</v>
       </c>
       <c r="F38">
-        <v>0.5578311498975381</v>
+        <v>0.55783114989753813</v>
       </c>
       <c r="G38">
         <v>18.93519350051065</v>
@@ -2042,71 +2080,71 @@
         <v>0.2321777923498303</v>
       </c>
       <c r="J38">
-        <v>12.10392392822541</v>
+        <v>12.103923928225409</v>
       </c>
       <c r="K38">
-        <v>83.37465424265247</v>
+        <v>83.374654242652468</v>
       </c>
       <c r="L38">
-        <v>383.4704308422527</v>
+        <v>383.47043084225271</v>
       </c>
       <c r="M38">
-        <v>1044.850264274572</v>
+        <v>1044.8502642745721</v>
       </c>
       <c r="N38">
-        <v>377.7442425809214</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>377.74424258092142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>45.86671676952392</v>
+        <v>45.866716769523919</v>
       </c>
       <c r="C39">
-        <v>8.892072175513022</v>
+        <v>8.8920721755130216</v>
       </c>
       <c r="D39">
         <v>12.26283828145824</v>
       </c>
       <c r="E39">
-        <v>0.8310371893458068</v>
+        <v>0.83103718934580684</v>
       </c>
       <c r="F39">
         <v>0.5638710393832298</v>
       </c>
       <c r="G39">
-        <v>17.23952305037528</v>
+        <v>17.239523050375279</v>
       </c>
       <c r="H39">
-        <v>3067.545882247388</v>
+        <v>3067.5458822473879</v>
       </c>
       <c r="I39">
-        <v>0.668482028413564</v>
+        <v>0.66848202841356397</v>
       </c>
       <c r="J39">
-        <v>7.72868882631883</v>
+        <v>7.7286888263188303</v>
       </c>
       <c r="K39">
-        <v>87.83148729708046</v>
+        <v>87.831487297080457</v>
       </c>
       <c r="L39">
-        <v>396.4865849444727</v>
+        <v>396.48658494447272</v>
       </c>
       <c r="M39">
-        <v>1068.707981785706</v>
+        <v>1068.7079817857059</v>
       </c>
       <c r="N39">
-        <v>389.3393339946866</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>389.33933399468663</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>30.40862118359655</v>
+        <v>30.408621183596551</v>
       </c>
       <c r="C40">
         <v>23.08527575514745</v>
@@ -2115,81 +2153,81 @@
         <v>8.854812168283388</v>
       </c>
       <c r="E40">
-        <v>0.8428042172454298</v>
+        <v>0.84280421724542975</v>
       </c>
       <c r="F40">
-        <v>0.4406652746692998</v>
+        <v>0.44066527466929978</v>
       </c>
       <c r="G40">
-        <v>5.215865533682518</v>
+        <v>5.2158655336825177</v>
       </c>
       <c r="H40">
-        <v>5252.138748494908</v>
+        <v>5252.1387484949082</v>
       </c>
       <c r="I40">
-        <v>0.9930286381859332</v>
+        <v>0.99302863818593323</v>
       </c>
       <c r="J40">
-        <v>6.429521180689335</v>
+        <v>6.4295211806893349</v>
       </c>
       <c r="K40">
         <v>91.27234909683466</v>
       </c>
       <c r="L40">
-        <v>683.1712672128049</v>
+        <v>683.17126721280488</v>
       </c>
       <c r="M40">
-        <v>1854.714062365994</v>
+        <v>1854.7140623659941</v>
       </c>
       <c r="N40">
-        <v>672.2577526799699</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>672.25775267996994</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>48.6386177726672</v>
+        <v>48.638617772667203</v>
       </c>
       <c r="C41">
         <v>8.439010928850621</v>
       </c>
       <c r="D41">
-        <v>4.618707427289337</v>
+        <v>4.6187074272893369</v>
       </c>
       <c r="E41">
-        <v>0.9698271984234452</v>
+        <v>0.96982719842344522</v>
       </c>
       <c r="F41">
-        <v>0.5730249464249937</v>
+        <v>0.57302494642499369</v>
       </c>
       <c r="G41">
         <v>15.3830382070737</v>
       </c>
       <c r="H41">
-        <v>2858.273297403008</v>
+        <v>2858.2732974030082</v>
       </c>
       <c r="I41">
-        <v>0.1656762906350195</v>
+        <v>0.16567629063501951</v>
       </c>
       <c r="J41">
-        <v>8.505043090553954</v>
+        <v>8.5050430905539542</v>
       </c>
       <c r="K41">
-        <v>86.39867854653858</v>
+        <v>86.398678546538576</v>
       </c>
       <c r="L41">
-        <v>368.5960224094729</v>
+        <v>368.59602240947288</v>
       </c>
       <c r="M41">
-        <v>995.9907813767566</v>
+        <v>995.99078137675656</v>
       </c>
       <c r="N41">
         <v>362.2115429099461</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2197,43 +2235,43 @@
         <v>54.49301667540567</v>
       </c>
       <c r="C42">
-        <v>4.478708608075976</v>
+        <v>4.4787086080759764</v>
       </c>
       <c r="D42">
-        <v>5.882615683367476</v>
+        <v>5.8826156833674759</v>
       </c>
       <c r="E42">
-        <v>0.9366325801238418</v>
+        <v>0.93663258012384176</v>
       </c>
       <c r="F42">
-        <v>0.6161760113245691</v>
+        <v>0.61617601132456912</v>
       </c>
       <c r="G42">
-        <v>20.85151567443972</v>
+        <v>20.851515674439721</v>
       </c>
       <c r="H42">
         <v>2475.962132621557</v>
       </c>
       <c r="I42">
-        <v>0.2435180649627</v>
+        <v>0.24351806496270001</v>
       </c>
       <c r="J42">
-        <v>7.501651521306485</v>
+        <v>7.5016515213064849</v>
       </c>
       <c r="K42">
-        <v>90.10297844797606</v>
+        <v>90.102978447976056</v>
       </c>
       <c r="L42">
         <v>318.0517405238835</v>
       </c>
       <c r="M42">
-        <v>856.2518272403581</v>
+        <v>856.25182724035812</v>
       </c>
       <c r="N42">
-        <v>312.2085587034208</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>312.20855870342081</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2241,157 +2279,157 @@
         <v>48.6487503767421</v>
       </c>
       <c r="C43">
-        <v>5.240772526303772</v>
+        <v>5.2407725263037719</v>
       </c>
       <c r="D43">
-        <v>6.395148293813691</v>
+        <v>6.3951482938136914</v>
       </c>
       <c r="E43">
-        <v>0.8937782840803266</v>
+        <v>0.89377828408032656</v>
       </c>
       <c r="F43">
-        <v>0.6048171327929595</v>
+        <v>0.60481713279295946</v>
       </c>
       <c r="G43">
-        <v>19.30695257033221</v>
+        <v>19.306952570332211</v>
       </c>
       <c r="H43">
         <v>2684.164835870266</v>
       </c>
       <c r="I43">
-        <v>0.1416912899003364</v>
+        <v>0.14169128990033639</v>
       </c>
       <c r="J43">
         <v>10.1578448782675</v>
       </c>
       <c r="K43">
-        <v>88.51022500093677</v>
+        <v>88.510225000936771</v>
       </c>
       <c r="L43">
-        <v>345.4282786560739</v>
+        <v>345.42827865607393</v>
       </c>
       <c r="M43">
-        <v>932.5881831958482</v>
+        <v>932.58818319584816</v>
       </c>
       <c r="N43">
-        <v>339.3604854314967</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>339.36048543149673</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>28.94406554842135</v>
+        <v>28.944065548421349</v>
       </c>
       <c r="C44">
-        <v>24.4218786858255</v>
+        <v>24.421878685825501</v>
       </c>
       <c r="D44">
-        <v>4.707690613577142</v>
+        <v>4.7076906135771424</v>
       </c>
       <c r="E44">
-        <v>0.4535443324130028</v>
+        <v>0.45354433241300279</v>
       </c>
       <c r="F44">
-        <v>0.438560872040398</v>
+        <v>0.43856087204039801</v>
       </c>
       <c r="G44">
-        <v>9.163275064202026</v>
+        <v>9.1632750642020255</v>
       </c>
       <c r="H44">
-        <v>6021.076764905825</v>
+        <v>6021.0767649058253</v>
       </c>
       <c r="I44">
-        <v>1.141750096576288</v>
+        <v>1.1417500965762879</v>
       </c>
       <c r="J44">
-        <v>6.035399291431531</v>
+        <v>6.0353992914315313</v>
       </c>
       <c r="K44">
         <v>91.99513106723316</v>
       </c>
       <c r="L44">
-        <v>781.717764019493</v>
+        <v>781.71776401949296</v>
       </c>
       <c r="M44">
-        <v>2133.730222132719</v>
+        <v>2133.7302221327191</v>
       </c>
       <c r="N44">
-        <v>770.4427999165209</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>770.44279991652093</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>28.88491991689079</v>
+        <v>28.884919916890791</v>
       </c>
       <c r="C45">
-        <v>26.17892477428541</v>
+        <v>26.178924774285409</v>
       </c>
       <c r="D45">
         <v>7.386988599319011</v>
       </c>
       <c r="E45">
-        <v>0.9374762885272503</v>
+        <v>0.93747628852725029</v>
       </c>
       <c r="F45">
-        <v>0.4528811170603149</v>
+        <v>0.45288111706031492</v>
       </c>
       <c r="G45">
-        <v>6.378043987206183</v>
+        <v>6.3780439872061834</v>
       </c>
       <c r="H45">
-        <v>5685.14615108259</v>
+        <v>5685.1461510825902</v>
       </c>
       <c r="I45">
-        <v>0.948989563039504</v>
+        <v>0.94898956303950399</v>
       </c>
       <c r="J45">
-        <v>6.967921636532992</v>
+        <v>6.9679216365329921</v>
       </c>
       <c r="K45">
-        <v>91.98272530920804</v>
+        <v>91.982725309208035</v>
       </c>
       <c r="L45">
-        <v>739.1772969744457</v>
+        <v>739.17729697444565</v>
       </c>
       <c r="M45">
         <v>2011.969984594964</v>
       </c>
       <c r="N45">
-        <v>727.9194171637603</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>727.91941716376027</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>29.56731612648582</v>
+        <v>29.567316126485821</v>
       </c>
       <c r="C46">
-        <v>24.65427193383221</v>
+        <v>24.654271933832209</v>
       </c>
       <c r="D46">
-        <v>7.48257128871046</v>
+        <v>7.4825712887104601</v>
       </c>
       <c r="E46">
-        <v>0.1941653550602496</v>
+        <v>0.19416535506024959</v>
       </c>
       <c r="F46">
-        <v>0.4389883231488056</v>
+        <v>0.43898832314880559</v>
       </c>
       <c r="G46">
-        <v>7.747553249646444</v>
+        <v>7.7475532496464439</v>
       </c>
       <c r="H46">
-        <v>5177.235002352507</v>
+        <v>5177.2350023525069</v>
       </c>
       <c r="I46">
-        <v>0.9535881050396711</v>
+        <v>0.95358810503967106</v>
       </c>
       <c r="J46">
         <v>6.366127950605005</v>
@@ -2400,16 +2438,16 @@
         <v>93.12379423645325</v>
       </c>
       <c r="L46">
-        <v>673.7244403810905</v>
+        <v>673.72444038109052</v>
       </c>
       <c r="M46">
-        <v>1828.473114182278</v>
+        <v>1828.4731141822781</v>
       </c>
       <c r="N46">
-        <v>662.8990482579861</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>662.89904825798612</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2417,63 +2455,63 @@
         <v>20.49213659956877</v>
       </c>
       <c r="C47">
-        <v>37.50950426911004</v>
+        <v>37.509504269110039</v>
       </c>
       <c r="D47">
-        <v>6.76984895253554</v>
+        <v>6.7698489525355399</v>
       </c>
       <c r="E47">
-        <v>0.6023053429089487</v>
+        <v>0.60230534290894866</v>
       </c>
       <c r="F47">
-        <v>0.3645285257480282</v>
+        <v>0.36452852574802819</v>
       </c>
       <c r="G47">
-        <v>3.120670770294964</v>
+        <v>3.1206707702949639</v>
       </c>
       <c r="H47">
-        <v>7867.472051337361</v>
+        <v>7867.4720513373613</v>
       </c>
       <c r="I47">
-        <v>2.611486150999554</v>
+        <v>2.6114861509995539</v>
       </c>
       <c r="J47">
-        <v>2.318849164294079</v>
+        <v>2.3188491642940789</v>
       </c>
       <c r="K47">
-        <v>95.78331539014471</v>
+        <v>95.783315390144708</v>
       </c>
       <c r="L47">
-        <v>1023.837108808089</v>
+        <v>1023.8371088080891</v>
       </c>
       <c r="M47">
-        <v>2796.827427311601</v>
+        <v>2796.8274273116008</v>
       </c>
       <c r="N47">
         <v>1009.304871912521</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>19.46854133566376</v>
+        <v>19.468541335663762</v>
       </c>
       <c r="C48">
-        <v>44.91057493432891</v>
+        <v>44.910574934328913</v>
       </c>
       <c r="D48">
-        <v>4.105512512614951</v>
+        <v>4.1055125126149514</v>
       </c>
       <c r="E48">
         <v>0.1254077535122633</v>
       </c>
       <c r="F48">
-        <v>0.3300475180149078</v>
+        <v>0.33004751801490778</v>
       </c>
       <c r="G48">
-        <v>4.871893630479462</v>
+        <v>4.8718936304794616</v>
       </c>
       <c r="H48">
         <v>10478.56210298836</v>
@@ -2482,86 +2520,86 @@
         <v>3.473103535361588</v>
       </c>
       <c r="J48">
-        <v>2.578392007853836</v>
+        <v>2.5783920078538358</v>
       </c>
       <c r="K48">
-        <v>96.63766339072026</v>
+        <v>96.637663390720263</v>
       </c>
       <c r="L48">
         <v>1360.15377044248</v>
       </c>
       <c r="M48">
-        <v>3739.753830701709</v>
+        <v>3739.7538307017089</v>
       </c>
       <c r="N48">
         <v>1343.40601615837</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>55.7702803707798</v>
+        <v>55.770280370779801</v>
       </c>
       <c r="C49">
-        <v>9.696608077501878</v>
+        <v>9.6966080775018781</v>
       </c>
       <c r="D49">
-        <v>6.770843133563176</v>
+        <v>6.7708431335631758</v>
       </c>
       <c r="E49">
-        <v>0.3271862864494324</v>
+        <v>0.32718628644943237</v>
       </c>
       <c r="F49">
-        <v>0.5982944907009369</v>
+        <v>0.59829449070093688</v>
       </c>
       <c r="G49">
-        <v>25.44311013189144</v>
+        <v>25.443110131891441</v>
       </c>
       <c r="H49">
         <v>3203.584845617414</v>
       </c>
       <c r="I49">
-        <v>0.1426613016519696</v>
+        <v>0.14266130165196961</v>
       </c>
       <c r="J49">
         <v>21.68692703708075</v>
       </c>
       <c r="K49">
-        <v>73.47237614449114</v>
+        <v>73.472376144491136</v>
       </c>
       <c r="L49">
-        <v>407.7818409266703</v>
+        <v>407.78184092667033</v>
       </c>
       <c r="M49">
-        <v>1133.611640468337</v>
+        <v>1133.6116404683371</v>
       </c>
       <c r="N49">
         <v>404.0724843633854</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>43.2478089518554</v>
+        <v>43.247808951855397</v>
       </c>
       <c r="C50">
-        <v>7.780430893762968</v>
+        <v>7.7804308937629676</v>
       </c>
       <c r="D50">
         <v>8.484129689168185</v>
       </c>
       <c r="E50">
-        <v>1.093843497801572</v>
+        <v>1.0938434978015721</v>
       </c>
       <c r="F50">
-        <v>0.5429272912879242</v>
+        <v>0.54292729128792416</v>
       </c>
       <c r="G50">
-        <v>15.65675147285219</v>
+        <v>15.656751472852189</v>
       </c>
       <c r="H50">
         <v>3028.367364436388</v>
@@ -2570,22 +2608,22 @@
         <v>0.1938155968673527</v>
       </c>
       <c r="J50">
-        <v>5.865947529673576</v>
+        <v>5.8659475296735764</v>
       </c>
       <c r="K50">
-        <v>86.84758788149338</v>
+        <v>86.847587881493382</v>
       </c>
       <c r="L50">
-        <v>391.6971673682882</v>
+        <v>391.69716736828821</v>
       </c>
       <c r="M50">
-        <v>1054.638197166113</v>
+        <v>1054.6381971661131</v>
       </c>
       <c r="N50">
-        <v>384.5136459966031</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>384.51364599660309</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2596,60 +2634,60 @@
         <v>6.550989011884667</v>
       </c>
       <c r="D51">
-        <v>8.195572532713413</v>
+        <v>8.1955725327134132</v>
       </c>
       <c r="E51">
-        <v>0.3865108708851039</v>
+        <v>0.38651087088510389</v>
       </c>
       <c r="F51">
         <v>0.5665175621106755</v>
       </c>
       <c r="G51">
-        <v>17.21461751694733</v>
+        <v>17.214617516947332</v>
       </c>
       <c r="H51">
-        <v>3081.298558270559</v>
+        <v>3081.2985582705592</v>
       </c>
       <c r="I51">
-        <v>0.4981890961062163</v>
+        <v>0.49818909610621631</v>
       </c>
       <c r="J51">
-        <v>11.6267889898154</v>
+        <v>11.626788989815401</v>
       </c>
       <c r="K51">
-        <v>84.29711071075872</v>
+        <v>84.297110710758716</v>
       </c>
       <c r="L51">
-        <v>396.010289003914</v>
+        <v>396.01028900391401</v>
       </c>
       <c r="M51">
-        <v>1077.444523968289</v>
+        <v>1077.4445239682891</v>
       </c>
       <c r="N51">
-        <v>389.9305756675861</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>389.93057566758608</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>62.53510283986543</v>
+        <v>62.535102839865431</v>
       </c>
       <c r="C52">
-        <v>1.301761374634225</v>
+        <v>1.3017613746342249</v>
       </c>
       <c r="D52">
-        <v>6.53055664151907</v>
+        <v>6.5305566415190697</v>
       </c>
       <c r="E52">
-        <v>0.3018619143404067</v>
+        <v>0.30186191434040671</v>
       </c>
       <c r="F52">
-        <v>0.6145027230813867</v>
+        <v>0.61450272308138665</v>
       </c>
       <c r="G52">
-        <v>27.85090852994472</v>
+        <v>27.850908529944721</v>
       </c>
       <c r="H52">
         <v>1855.296777777374</v>
@@ -2658,22 +2696,22 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <v>17.21828540539718</v>
+        <v>17.218285405397179</v>
       </c>
       <c r="K52">
         <v>77.41124603926437</v>
       </c>
       <c r="L52">
-        <v>233.1927661094896</v>
+        <v>233.19276610948961</v>
       </c>
       <c r="M52">
-        <v>643.2629963131672</v>
+        <v>643.26299631316715</v>
       </c>
       <c r="N52">
-        <v>230.5431059708791</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>230.54310597087911</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2681,122 +2719,122 @@
         <v>47.90028289280599</v>
       </c>
       <c r="C53">
-        <v>10.05644030810799</v>
+        <v>10.056440308107989</v>
       </c>
       <c r="D53">
-        <v>3.959972446318716</v>
+        <v>3.9599724463187158</v>
       </c>
       <c r="E53">
-        <v>0.9578038472682238</v>
+        <v>0.95780384726822376</v>
       </c>
       <c r="F53">
-        <v>0.5802747387206182</v>
+        <v>0.58027473872061819</v>
       </c>
       <c r="G53">
-        <v>16.92629996396136</v>
+        <v>16.926299963961359</v>
       </c>
       <c r="H53">
-        <v>3217.871056087315</v>
+        <v>3217.8710560873151</v>
       </c>
       <c r="I53">
-        <v>0.2657037577591836</v>
+        <v>0.26570375775918359</v>
       </c>
       <c r="J53">
-        <v>12.96765803708695</v>
+        <v>12.967658037086951</v>
       </c>
       <c r="K53">
         <v>82.79670812189579</v>
       </c>
       <c r="L53">
-        <v>413.8902408795573</v>
+        <v>413.89024087955733</v>
       </c>
       <c r="M53">
-        <v>1129.87457267095</v>
+        <v>1129.8745726709501</v>
       </c>
       <c r="N53">
-        <v>407.9358342924311</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>407.93583429243108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>47.40885642240755</v>
+        <v>47.408856422407553</v>
       </c>
       <c r="C54">
         <v>7.591960541321896</v>
       </c>
       <c r="D54">
-        <v>5.938378348946571</v>
+        <v>5.9383783489465714</v>
       </c>
       <c r="E54">
-        <v>0.5158306215889752</v>
+        <v>0.51583062158897519</v>
       </c>
       <c r="F54">
-        <v>0.5717336118395906</v>
+        <v>0.57173361183959059</v>
       </c>
       <c r="G54">
-        <v>14.87479189236183</v>
+        <v>14.874791892361831</v>
       </c>
       <c r="H54">
-        <v>3299.044593412429</v>
+        <v>3299.0445934124291</v>
       </c>
       <c r="I54">
-        <v>0.6396635813871399</v>
+        <v>0.63966358138713986</v>
       </c>
       <c r="J54">
-        <v>7.651022053323686</v>
+        <v>7.6510220533236861</v>
       </c>
       <c r="K54">
-        <v>89.79570667725056</v>
+        <v>89.795706677250564</v>
       </c>
       <c r="L54">
-        <v>426.0061119358396</v>
+        <v>426.00611193583961</v>
       </c>
       <c r="M54">
-        <v>1152.170885559225</v>
+        <v>1152.1708855592251</v>
       </c>
       <c r="N54">
-        <v>418.7383120729995</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>418.73831207299952</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
-        <v>25.8233712927904</v>
+        <v>25.823371292790402</v>
       </c>
       <c r="C55">
         <v>46.02070786349941</v>
       </c>
       <c r="D55">
-        <v>6.068367505213246</v>
+        <v>6.0683675052132457</v>
       </c>
       <c r="E55">
-        <v>0.634924927726388</v>
+        <v>0.63492492772638798</v>
       </c>
       <c r="F55">
-        <v>0.3443042407889152</v>
+        <v>0.34430424078891519</v>
       </c>
       <c r="G55">
-        <v>5.187876074342057</v>
+        <v>5.1878760743420571</v>
       </c>
       <c r="H55">
-        <v>10219.96889394522</v>
+        <v>10219.968893945221</v>
       </c>
       <c r="I55">
-        <v>0.8044923190027475</v>
+        <v>0.80449231900274754</v>
       </c>
       <c r="J55">
-        <v>4.285903694108129</v>
+        <v>4.2859036941081294</v>
       </c>
       <c r="K55">
-        <v>93.34597794222646</v>
+        <v>93.345977942226455</v>
       </c>
       <c r="L55">
-        <v>1325.323056883935</v>
+        <v>1325.3230568839349</v>
       </c>
       <c r="M55">
         <v>3647.396004496728</v>
@@ -2805,83 +2843,83 @@
         <v>1309.364493712189</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>33.43146924926259</v>
+        <v>33.431469249262591</v>
       </c>
       <c r="C56">
-        <v>20.34458217240172</v>
+        <v>20.344582172401719</v>
       </c>
       <c r="D56">
-        <v>5.183683440554887</v>
+        <v>5.1836834405548871</v>
       </c>
       <c r="E56">
-        <v>0.7921460550278425</v>
+        <v>0.79214605502784252</v>
       </c>
       <c r="F56">
-        <v>0.4817640790715814</v>
+        <v>0.48176407907158142</v>
       </c>
       <c r="G56">
-        <v>8.114017581101507</v>
+        <v>8.1140175811015069</v>
       </c>
       <c r="H56">
-        <v>5844.172078695148</v>
+        <v>5844.1720786951482</v>
       </c>
       <c r="I56">
         <v>1.140178140485659</v>
       </c>
       <c r="J56">
-        <v>3.824332740623504</v>
+        <v>3.8243327406235039</v>
       </c>
       <c r="K56">
-        <v>86.77691869379487</v>
+        <v>86.776918693794869</v>
       </c>
       <c r="L56">
-        <v>757.6174171449086</v>
+        <v>757.61741714490859</v>
       </c>
       <c r="M56">
-        <v>2070.033717000129</v>
+        <v>2070.0337170001289</v>
       </c>
       <c r="N56">
-        <v>746.9105468594445</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>746.91054685944448</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
-        <v>28.69748322991654</v>
+        <v>28.697483229916539</v>
       </c>
       <c r="C57">
-        <v>30.53925736167002</v>
+        <v>30.539257361670021</v>
       </c>
       <c r="D57">
-        <v>5.730706237955019</v>
+        <v>5.7307062379550189</v>
       </c>
       <c r="E57">
-        <v>1.802262268029153</v>
+        <v>1.8022622680291529</v>
       </c>
       <c r="F57">
-        <v>0.404906726864283</v>
+        <v>0.40490672686428297</v>
       </c>
       <c r="G57">
-        <v>5.776241511921398</v>
+        <v>5.7762415119213983</v>
       </c>
       <c r="H57">
-        <v>7473.81167473644</v>
+        <v>7473.8116747364402</v>
       </c>
       <c r="I57">
-        <v>0.6653579184785485</v>
+        <v>0.66535791847854853</v>
       </c>
       <c r="J57">
-        <v>4.12958333035931</v>
+        <v>4.1295833303593099</v>
       </c>
       <c r="K57">
-        <v>94.6984429116128</v>
+        <v>94.698442911612801</v>
       </c>
       <c r="L57">
         <v>970.0936639880498</v>
@@ -2890,10 +2928,10 @@
         <v>2654.489955323203</v>
       </c>
       <c r="N57">
-        <v>956.79707879887</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>956.79707879886996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2904,84 +2942,84 @@
         <v>28.46211838623276</v>
       </c>
       <c r="D58">
-        <v>5.234938499052078</v>
+        <v>5.2349384990520784</v>
       </c>
       <c r="E58">
         <v>1.09574415255338</v>
       </c>
       <c r="F58">
-        <v>0.4521165250916965</v>
+        <v>0.45211652509169648</v>
       </c>
       <c r="G58">
         <v>11.8794520793017</v>
       </c>
       <c r="H58">
-        <v>7171.546932250261</v>
+        <v>7171.5469322502613</v>
       </c>
       <c r="I58">
-        <v>2.04581530415453</v>
+        <v>2.0458153041545302</v>
       </c>
       <c r="J58">
-        <v>5.744463909650221</v>
+        <v>5.7444639096502206</v>
       </c>
       <c r="K58">
-        <v>87.6310686711804</v>
+        <v>87.631068671180401</v>
       </c>
       <c r="L58">
         <v>928.827620642753</v>
       </c>
       <c r="M58">
-        <v>2551.45620784563</v>
+        <v>2551.4562078456302</v>
       </c>
       <c r="N58">
         <v>917.1411344396314</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
-        <v>33.47156409727177</v>
+        <v>33.471564097271767</v>
       </c>
       <c r="C59">
-        <v>23.99454504047753</v>
+        <v>23.994545040477529</v>
       </c>
       <c r="D59">
-        <v>8.472893404541537</v>
+        <v>8.4728934045415372</v>
       </c>
       <c r="E59">
         <v>0.7886347477324307</v>
       </c>
       <c r="F59">
-        <v>0.4558948918129317</v>
+        <v>0.45589489181293169</v>
       </c>
       <c r="G59">
-        <v>7.14556344319135</v>
+        <v>7.1455634431913504</v>
       </c>
       <c r="H59">
-        <v>6257.305249232799</v>
+        <v>6257.3052492327988</v>
       </c>
       <c r="I59">
-        <v>0.8033340040128678</v>
+        <v>0.80333400401286781</v>
       </c>
       <c r="J59">
-        <v>5.848559463629499</v>
+        <v>5.8485594636294991</v>
       </c>
       <c r="K59">
-        <v>90.87178006302565</v>
+        <v>90.871780063025653</v>
       </c>
       <c r="L59">
-        <v>811.6892122173143</v>
+        <v>811.68921221731432</v>
       </c>
       <c r="M59">
-        <v>2217.104441121738</v>
+        <v>2217.1044411217381</v>
       </c>
       <c r="N59">
-        <v>800.147448740815</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>800.14744874081498</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2989,16 +3027,16 @@
         <v>54.31240212492412</v>
       </c>
       <c r="C60">
-        <v>5.480530258500949</v>
+        <v>5.4805302585009494</v>
       </c>
       <c r="D60">
-        <v>5.495598079869524</v>
+        <v>5.4955980798695236</v>
       </c>
       <c r="E60">
-        <v>1.89050356275402</v>
+        <v>1.8905035627540201</v>
       </c>
       <c r="F60">
-        <v>0.6223091380525148</v>
+        <v>0.62230913805251475</v>
       </c>
       <c r="G60">
         <v>23.36753422714537</v>
@@ -3007,136 +3045,136 @@
         <v>2852.85513613373</v>
       </c>
       <c r="I60">
-        <v>0.1542270067147911</v>
+        <v>0.15422700671479109</v>
       </c>
       <c r="J60">
         <v>11.72542400017846</v>
       </c>
       <c r="K60">
-        <v>82.36983726965264</v>
+        <v>82.369837269652635</v>
       </c>
       <c r="L60">
-        <v>364.7537364606864</v>
+        <v>364.75373646068641</v>
       </c>
       <c r="M60">
-        <v>997.9527555336143</v>
+        <v>997.95275553361432</v>
       </c>
       <c r="N60">
-        <v>359.7403528496606</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>359.74035284966061</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
-        <v>41.62046348355943</v>
+        <v>41.620463483559433</v>
       </c>
       <c r="C61">
         <v>12.24399096245179</v>
       </c>
       <c r="D61">
-        <v>6.036938651232049</v>
+        <v>6.0369386512320489</v>
       </c>
       <c r="E61">
-        <v>1.480291035841219</v>
+        <v>1.4802910358412189</v>
       </c>
       <c r="F61">
-        <v>0.5411632857867517</v>
+        <v>0.54116328578675166</v>
       </c>
       <c r="G61">
-        <v>13.37513167818543</v>
+        <v>13.375131678185429</v>
       </c>
       <c r="H61">
-        <v>3963.429056376219</v>
+        <v>3963.4290563762188</v>
       </c>
       <c r="I61">
-        <v>0.4370336100691929</v>
+        <v>0.43703361006919289</v>
       </c>
       <c r="J61">
-        <v>7.312141801230609</v>
+        <v>7.3121418012306094</v>
       </c>
       <c r="K61">
-        <v>91.27306918235263</v>
+        <v>91.273069182352629</v>
       </c>
       <c r="L61">
-        <v>513.1208940717239</v>
+        <v>513.12089407172391</v>
       </c>
       <c r="M61">
-        <v>1391.054388550887</v>
+        <v>1391.0543885508871</v>
       </c>
       <c r="N61">
-        <v>504.7128774273301</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>504.71287742733011</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
-        <v>53.63227326306514</v>
+        <v>53.632273263065137</v>
       </c>
       <c r="C62">
-        <v>4.935801379906479</v>
+        <v>4.9358013799064793</v>
       </c>
       <c r="D62">
-        <v>3.717566072009504</v>
+        <v>3.7175660720095038</v>
       </c>
       <c r="E62">
-        <v>4.284659633412957</v>
+        <v>4.2846596334129572</v>
       </c>
       <c r="F62">
-        <v>0.5965155369485728</v>
+        <v>0.59651553694857284</v>
       </c>
       <c r="G62">
-        <v>23.53314768697601</v>
+        <v>23.533147686976012</v>
       </c>
       <c r="H62">
-        <v>2335.160491321236</v>
+        <v>2335.1604913212359</v>
       </c>
       <c r="I62">
-        <v>0.2336522040423006</v>
+        <v>0.23365220404230061</v>
       </c>
       <c r="J62">
         <v>10.12696645921096</v>
       </c>
       <c r="K62">
-        <v>88.9368493197253</v>
+        <v>88.936849319725297</v>
       </c>
       <c r="L62">
-        <v>298.9817373053414</v>
+        <v>298.98173730534143</v>
       </c>
       <c r="M62">
-        <v>808.1878536234721</v>
+        <v>808.18785362347205</v>
       </c>
       <c r="N62">
-        <v>293.8350987380102</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>293.83509873801017</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
-        <v>57.79799163246935</v>
+        <v>57.797991632469348</v>
       </c>
       <c r="C63">
-        <v>3.112754749599844</v>
+        <v>3.1127547495998442</v>
       </c>
       <c r="D63">
-        <v>6.392933492315933</v>
+        <v>6.3929334923159331</v>
       </c>
       <c r="E63">
-        <v>4.819371510529891</v>
+        <v>4.8193715105298907</v>
       </c>
       <c r="F63">
-        <v>0.6479120123476605</v>
+        <v>0.64791201234766049</v>
       </c>
       <c r="G63">
         <v>21.48856827989221</v>
       </c>
       <c r="H63">
-        <v>2186.906176164746</v>
+        <v>2186.9061761647458</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -3145,33 +3183,33 @@
         <v>11.58760995895136</v>
       </c>
       <c r="K63">
-        <v>78.45961490165792</v>
+        <v>78.459614901657915</v>
       </c>
       <c r="L63">
-        <v>278.0608307793451</v>
+        <v>278.06083077934511</v>
       </c>
       <c r="M63">
-        <v>758.1809883766587</v>
+        <v>758.18098837665866</v>
       </c>
       <c r="N63">
-        <v>273.9660140170332</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>273.96601401703322</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
-        <v>40.66746880853316</v>
+        <v>40.667468808533158</v>
       </c>
       <c r="C64">
-        <v>11.04799840977648</v>
+        <v>11.047998409776479</v>
       </c>
       <c r="D64">
-        <v>6.554514437448233</v>
+        <v>6.5545144374482334</v>
       </c>
       <c r="E64">
-        <v>2.242170262616128</v>
+        <v>2.2421702626161282</v>
       </c>
       <c r="F64">
         <v>0.5247435691053397</v>
@@ -3180,198 +3218,198 @@
         <v>13.5260580223985</v>
       </c>
       <c r="H64">
-        <v>3646.290968321264</v>
+        <v>3646.2909683212638</v>
       </c>
       <c r="I64">
         <v>0.239812969812192</v>
       </c>
       <c r="J64">
-        <v>7.309609226649627</v>
+        <v>7.3096092266496271</v>
       </c>
       <c r="K64">
-        <v>86.75004997639917</v>
+        <v>86.750049976399168</v>
       </c>
       <c r="L64">
-        <v>471.7720801760524</v>
+        <v>471.77208017605238</v>
       </c>
       <c r="M64">
         <v>1278.406549357866</v>
       </c>
       <c r="N64">
-        <v>463.9832160911554</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>463.98321609115538</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>45.05845664243679</v>
+        <v>45.058456642436788</v>
       </c>
       <c r="C65">
-        <v>8.317232932313345</v>
+        <v>8.3172329323133454</v>
       </c>
       <c r="D65">
-        <v>6.404614285565913</v>
+        <v>6.4046142855659127</v>
       </c>
       <c r="E65">
-        <v>2.112310635857284</v>
+        <v>2.1123106358572841</v>
       </c>
       <c r="F65">
-        <v>0.5780629108194262</v>
+        <v>0.57806291081942618</v>
       </c>
       <c r="G65">
         <v>14.07221639310592</v>
       </c>
       <c r="H65">
-        <v>3299.00707196258</v>
+        <v>3299.0070719625801</v>
       </c>
       <c r="I65">
-        <v>0.2803051494993269</v>
+        <v>0.28030514949932689</v>
       </c>
       <c r="J65">
         <v>4.196852003224194</v>
       </c>
       <c r="K65">
-        <v>95.19301585387439</v>
+        <v>95.193015853874385</v>
       </c>
       <c r="L65">
-        <v>427.4841931156967</v>
+        <v>427.48419311569671</v>
       </c>
       <c r="M65">
         <v>1147.785340293505</v>
       </c>
       <c r="N65">
-        <v>419.3052469325532</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>419.30524693255319</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
-        <v>53.71185702097137</v>
+        <v>53.711857020971372</v>
       </c>
       <c r="C66">
         <v>2.965649933321401</v>
       </c>
       <c r="D66">
-        <v>6.02016655029729</v>
+        <v>6.0201665502972901</v>
       </c>
       <c r="E66">
         <v>1.791410113219172</v>
       </c>
       <c r="F66">
-        <v>0.615746994750225</v>
+        <v>0.61574699475022499</v>
       </c>
       <c r="G66">
-        <v>21.69590935518499</v>
+        <v>21.695909355184991</v>
       </c>
       <c r="H66">
-        <v>2525.067538499832</v>
+        <v>2525.0675384998322</v>
       </c>
       <c r="I66">
-        <v>0.0610046437941492</v>
+        <v>6.1004643794149202E-2</v>
       </c>
       <c r="J66">
         <v>9.116278518922627</v>
       </c>
       <c r="K66">
-        <v>83.06768705369905</v>
+        <v>83.067687053699046</v>
       </c>
       <c r="L66">
-        <v>323.0562947206975</v>
+        <v>323.05629472069751</v>
       </c>
       <c r="M66">
-        <v>877.381229569922</v>
+        <v>877.38122956992197</v>
       </c>
       <c r="N66">
-        <v>317.9302821045545</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>317.93028210455452</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
-        <v>55.76306598341034</v>
+        <v>55.763065983410343</v>
       </c>
       <c r="C67">
-        <v>4.767544200876728</v>
+        <v>4.7675442008767277</v>
       </c>
       <c r="D67">
-        <v>6.347888166783378</v>
+        <v>6.3478881667833784</v>
       </c>
       <c r="E67">
-        <v>4.743106180103496</v>
+        <v>4.7431061801034957</v>
       </c>
       <c r="F67">
-        <v>0.6340223110673833</v>
+        <v>0.63402231106738327</v>
       </c>
       <c r="G67">
-        <v>21.70648633327801</v>
+        <v>21.706486333278011</v>
       </c>
       <c r="H67">
         <v>2542.317254755646</v>
       </c>
       <c r="I67">
-        <v>0.194531335728243</v>
+        <v>0.19453133572824299</v>
       </c>
       <c r="J67">
         <v>12.42542400723323</v>
       </c>
       <c r="K67">
-        <v>76.87195733524277</v>
+        <v>76.871957335242769</v>
       </c>
       <c r="L67">
-        <v>323.926637916198</v>
+        <v>323.92663791619799</v>
       </c>
       <c r="M67">
-        <v>887.744404237133</v>
+        <v>887.74440423713304</v>
       </c>
       <c r="N67">
-        <v>319.632194076929</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>319.63219407692901</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
-        <v>54.94980198491248</v>
+        <v>54.949801984912483</v>
       </c>
       <c r="C68">
-        <v>4.224771750159562</v>
+        <v>4.2247717501595616</v>
       </c>
       <c r="D68">
-        <v>6.511442951159552</v>
+        <v>6.5114429511595517</v>
       </c>
       <c r="E68">
         <v>1.494072044442873</v>
       </c>
       <c r="F68">
-        <v>0.6372228252148489</v>
+        <v>0.63722282521484885</v>
       </c>
       <c r="G68">
-        <v>20.21359292266425</v>
+        <v>20.213592922664251</v>
       </c>
       <c r="H68">
-        <v>2340.451439317316</v>
+        <v>2340.4514393173158</v>
       </c>
       <c r="I68">
-        <v>0.0793014885857701</v>
+        <v>7.9301488585770102E-2</v>
       </c>
       <c r="J68">
-        <v>17.41519015631638</v>
+        <v>17.415190156316381</v>
       </c>
       <c r="K68">
-        <v>77.32533599773888</v>
+        <v>77.325335997738875</v>
       </c>
       <c r="L68">
-        <v>297.8733361773109</v>
+        <v>297.87333617731088</v>
       </c>
       <c r="M68">
-        <v>816.6896570430976</v>
+        <v>816.68965704309755</v>
       </c>
       <c r="N68">
         <v>293.9608805939173</v>
